--- a/mercury/src/test/resources/testdata/manifest-import/test-manifest-unknown-headers.xlsx
+++ b/mercury/src/test/resources/testdata/manifest-import/test-manifest-unknown-headers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="0" windowWidth="25600" windowHeight="20460"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="15340"/>
   </bookViews>
   <sheets>
     <sheet name="Buick Example" sheetId="2" r:id="rId1"/>
@@ -278,12 +278,6 @@
     <t>24-Apr-2012</t>
   </si>
   <si>
-    <t>T/N</t>
-  </si>
-  <si>
-    <t>Sample ID</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -312,13 +306,19 @@
   </si>
   <si>
     <t>am</t>
+  </si>
+  <si>
+    <t>Specimen_Number</t>
+  </si>
+  <si>
+    <t>SAMPLE_TYPE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -341,8 +341,27 @@
       <color indexed="81"/>
       <name val="MS Sans Serif"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="MS Sans Serif"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="MS Sans Serif"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +380,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD5B4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -371,10 +402,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -385,9 +420,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -395,8 +427,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -797,7 +839,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="H1" sqref="H1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -810,8 +852,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>75</v>
+      <c r="A1" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -825,11 +867,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>80</v>
+      <c r="F1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -840,7 +882,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -848,11 +890,11 @@
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>81</v>
+      <c r="F2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -863,7 +905,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -871,11 +913,11 @@
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>82</v>
+      <c r="F3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -886,7 +928,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -894,11 +936,11 @@
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>83</v>
+      <c r="F4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -909,7 +951,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
@@ -917,11 +959,11 @@
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>84</v>
+      <c r="F5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -932,7 +974,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>19</v>
@@ -940,11 +982,11 @@
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>85</v>
+      <c r="F6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -955,7 +997,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
@@ -963,8 +1005,8 @@
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>79</v>
+      <c r="F7" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -975,7 +1017,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>25</v>
@@ -983,8 +1025,8 @@
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>78</v>
+      <c r="F8" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -995,7 +1037,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>28</v>
@@ -1003,8 +1045,8 @@
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>79</v>
+      <c r="F9" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1015,7 +1057,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>31</v>
@@ -1023,8 +1065,8 @@
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>78</v>
+      <c r="F10" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1035,7 +1077,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>34</v>
@@ -1043,8 +1085,8 @@
       <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>79</v>
+      <c r="F11" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1055,7 +1097,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>37</v>
@@ -1063,8 +1105,8 @@
       <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>78</v>
+      <c r="F12" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1075,7 +1117,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>40</v>
@@ -1083,8 +1125,8 @@
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>79</v>
+      <c r="F13" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1095,7 +1137,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>43</v>
@@ -1103,8 +1145,8 @@
       <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>78</v>
+      <c r="F14" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1115,7 +1157,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>46</v>
@@ -1123,8 +1165,8 @@
       <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>79</v>
+      <c r="F15" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1135,7 +1177,7 @@
         <v>48</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>49</v>
@@ -1143,8 +1185,8 @@
       <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>78</v>
+      <c r="F16" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1155,7 +1197,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>52</v>
@@ -1163,8 +1205,8 @@
       <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>79</v>
+      <c r="F17" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1175,7 +1217,7 @@
         <v>54</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>55</v>
@@ -1183,8 +1225,8 @@
       <c r="E18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>78</v>
+      <c r="F18" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1195,7 +1237,7 @@
         <v>57</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>58</v>
@@ -1203,8 +1245,8 @@
       <c r="E19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>79</v>
+      <c r="F19" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1215,7 +1257,7 @@
         <v>60</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>61</v>
@@ -1223,8 +1265,8 @@
       <c r="E20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>78</v>
+      <c r="F20" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1235,7 +1277,7 @@
         <v>63</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>64</v>
@@ -1243,8 +1285,8 @@
       <c r="E21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>79</v>
+      <c r="F21" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1255,7 +1297,7 @@
         <v>66</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>67</v>
@@ -1263,8 +1305,8 @@
       <c r="E22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>78</v>
+      <c r="F22" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1275,7 +1317,7 @@
         <v>69</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>70</v>
@@ -1283,8 +1325,8 @@
       <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>79</v>
+      <c r="F23" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1295,7 +1337,7 @@
         <v>72</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>73</v>
@@ -1303,8 +1345,8 @@
       <c r="E24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>78</v>
+      <c r="F24" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
